--- a/Shading Trees/my_graphs/Value Added Change by Commodities.xlsx
+++ b/Shading Trees/my_graphs/Value Added Change by Commodities.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-17.63371893485601</v>
+        <v>0.3730702113971347</v>
       </c>
       <c r="J2">
-        <v>-48.41763262837776</v>
+        <v>1.639264809084125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.0350030397471528</v>
+        <v>0.0008310966917406404</v>
       </c>
       <c r="J3">
-        <v>-2.322281483655388</v>
+        <v>0.05513922426325735</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-3.511256087855145</v>
+        <v>8.65765945664316</v>
       </c>
       <c r="J4">
-        <v>-9.558374037325848</v>
+        <v>36.9948324203433</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02378300723086113</v>
+        <v>5.181694646694268E-06</v>
       </c>
       <c r="J5">
-        <v>0.6353769462957644</v>
+        <v>0.0001384320021315943</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.117354008550592</v>
+        <v>218.0475998455561</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-17.39105466108595</v>
+        <v>39.74448037070397</v>
       </c>
       <c r="J7">
-        <v>-58.81307968619512</v>
+        <v>134.4079089325969</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-7.14563095298945</v>
+        <v>0.6041281308862381</v>
       </c>
       <c r="J8">
-        <v>-109.8895101421513</v>
+        <v>9.290620352956466</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-42.15207096705126</v>
+        <v>0.02927691701552249</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-12.10067507970962</v>
+        <v>4.545615336115588</v>
       </c>
       <c r="J10">
-        <v>-101.2899537468911</v>
+        <v>41.19763083971338</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-1.04077750889337</v>
+        <v>0.1035966683884908</v>
       </c>
       <c r="J11">
-        <v>-5.962287797497993</v>
+        <v>0.4737479227187578</v>
       </c>
     </row>
   </sheetData>
